--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihwa\Documents\AIapp\myenv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihwa\OneDrive\바탕 화면\neurology_quiz_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3CF25-CE50-43DA-9815-33707BEFBDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE97E8E-ECB6-4017-9060-9B4CDFF41EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Question</t>
   </si>
@@ -4585,12 +4585,203 @@
     <t>image03.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장골능선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Iliac Crests), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요추</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>극돌기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Lumbar Spinous Processes), L3-L4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추간공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Interspinous Space), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후상장골극</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Posterior Superior Iliac Spines, PSIS), L4-L5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추간공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Interspinous Space)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 영상을 보고 요추천자시 중요한 Landmark가 아닌것을 고르시오.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L3-L4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추간공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (Interspinous Space)</t>
+    </r>
+  </si>
+  <si>
+    <t>맞음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차 선택지는 아님</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1Tm-8sk39ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4650,6 +4841,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4683,10 +4916,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4719,13 +4953,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4941,10 +5184,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J991"/>
+  <dimension ref="A1:K991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4955,7 +5198,7 @@
     <col min="4" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4986,8 +5229,11 @@
       <c r="J1" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K1" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
@@ -5019,7 +5265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -5048,7 +5294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -5080,17 +5326,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5100,7 +5368,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5110,7 +5378,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5120,7 +5388,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5130,7 +5398,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5140,7 +5408,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5150,7 +5418,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5160,7 +5428,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5170,7 +5438,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5180,7 +5448,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5190,7 +5458,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13432,6 +13700,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{F56BD2C1-20CE-4B84-9896-12AB9716F4C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihwa\OneDrive\바탕 화면\neurology_quiz_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE97E8E-ECB6-4017-9060-9B4CDFF41EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2861E-C436-4A1E-AD88-CF43034A3C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4769,11 +4769,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>video</t>
+    <t>https://www.youtube.com/watch?v=1Tm-8sk39ok</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=1Tm-8sk39ok</t>
+    <t>Video</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5187,7 +5187,7 @@
   <dimension ref="A1:K991"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5230,7 +5230,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -5355,7 +5355,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihwa\OneDrive\바탕 화면\neurology_quiz_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2861E-C436-4A1E-AD88-CF43034A3C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7612F1-F152-4047-8773-B0AABCD24768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Question</t>
   </si>
@@ -4586,194 +4586,2019 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양쪽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장골능선</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Iliac Crests), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요추</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>극돌기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Lumbar Spinous Processes), L3-L4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추간공간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Interspinous Space), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후상장골극</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Posterior Superior Iliac Spines, PSIS), L4-L5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추간공간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Interspinous Space)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 영상을 보고 요추천자시 중요한 Landmark가 아닌것을 고르시오.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L3-L4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추간공간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> (Interspinous Space)</t>
-    </r>
-  </si>
-  <si>
-    <t>맞음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차 선택지는 아님</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=1Tm-8sk39ok</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Video</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>척추 마취를 시도하던 중, 바늘이 약 2~4cm 깊이(중간 깊이)에서 뼈에 닿아 더 이상 진입하지 못했습니다. 이는 바늘이 정중선을 벗어나 척추궁판(Lamina)에 닿은 것으로 판단됩니다. 이때 영상에서 권장하는 가장 적절한 대처 방법은 무엇입니까?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위쪽이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래쪽으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>척추</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Interspace)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재삽입한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒤로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후퇴시킨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뇌척수액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(CSF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흘러나오는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잠시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기다려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피하조직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후퇴시킨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후 꼬리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Caudally)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조정하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재진입한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피하조직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후퇴시킨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Cranially) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>측면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미세하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Micro-redirection)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>짧아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>닿지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것이므로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>즉시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교체하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시술을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피하조직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후퇴시킨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Cranially) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>측면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미세하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(Micro-redirection)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>얕은 깊이에서 뼈(극돌기)에 닿았을 때(시나리오 1)의 해결책입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊은 깊이(6~8cm)에서 뼈에 닿았을 때(시나리오 3) 경막을 뚫고 지나갔을 가능성을 확인할 때 사용하는 방법입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>바늘이 끝까지 들어갔는데도 뼈에 닿지 않을 때(시나리오 4) 바늘 길이가 문제가 아니라 방향이 크게 잘못되었을(요근 쪽) 가능성이 높습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바꾸는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상에서는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>절대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꼬리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Caudally)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>틀면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>된다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강조합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꼬리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쪽으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>척수강으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진입할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때문입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상의 시나리오 2에 따르면 중간 깊이(2~4cm)에서 뼈(척추궁판)에 닿았을 때는 바늘을 피부까지 뺀 후 머리 쪽(Cranially)이나 좌우로 미세하게 방향을 조정(Micro-redirection)해야 합니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4864,13 +6689,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -4882,6 +6700,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4918,9 +6743,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4958,13 +6783,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5186,8 +7012,8 @@
   </sheetPr>
   <dimension ref="A1:K991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5230,7 +7056,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -5328,34 +7154,34 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
+      <c r="C5" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>37</v>
+      <c r="F5" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>38</v>
+      <c r="K5" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihwa\OneDrive\바탕 화면\neurology_quiz_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7612F1-F152-4047-8773-B0AABCD24768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE976CE-5D84-4881-A335-D2C7414CC084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="12800" windowHeight="7450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -4594,10 +4594,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>척추 마취를 시도하던 중, 바늘이 약 2~4cm 깊이(중간 깊이)에서 뼈에 닿아 더 이상 진입하지 못했습니다. 이는 바늘이 정중선을 벗어나 척추궁판(Lamina)에 닿은 것으로 판단됩니다. 이때 영상에서 권장하는 가장 적절한 대처 방법은 무엇입니까?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6599,6 +6595,10 @@
   </si>
   <si>
     <t>영상의 시나리오 2에 따르면 중간 깊이(2~4cm)에서 뼈(척추궁판)에 닿았을 때는 바늘을 피부까지 뺀 후 머리 쪽(Cranially)이나 좌우로 미세하게 방향을 조정(Micro-redirection)해야 합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>척추 마취를 시도하던 중 바늘이 약 2~4cm 깊이(중간 깊이)에서 뼈에 닿아 더 이상 진입하지 못했습니다. 이는 바늘이 정중선을 벗어나 척추궁판(Lamina)에 닿은 것으로 판단됩니다. 이때 영상에서 권장하는 가장 적절한 대처 방법은 무엇입니까?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7013,7 +7013,7 @@
   <dimension ref="A1:K991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7154,28 +7154,28 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>39</v>
+      <c r="F5" s="20" t="s">
+        <v>40</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>5</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihwa\OneDrive\바탕 화면\neurology_quiz_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE976CE-5D84-4881-A335-D2C7414CC084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4114CD32-C0DE-497C-ACDD-D9F9E4DA7537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="12800" windowHeight="7450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -4599,1263 +4599,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바늘을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완전히</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제거한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위쪽이나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아래쪽으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이동하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>척추</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Interspace)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재삽입한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">., </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바늘을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뒤로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후퇴시킨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뇌척수액</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(CSF)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>흘러나오는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잠시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기다려</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">., </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바늘을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>표면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피하조직</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후퇴시킨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후 꼬리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쪽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Caudally)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방향을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>크게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조정하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재진입한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">., </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바늘을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>표면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피하조직</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후퇴시킨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>머리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쪽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Cranially) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좌우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>측면으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미세하게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방향을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Micro-redirection)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">., </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바늘이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>짧아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뼈에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>닿지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>것이므로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>즉시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>긴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바늘로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교체하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시술을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -6599,6 +5342,1263 @@
   </si>
   <si>
     <t>척추 마취를 시도하던 중 바늘이 약 2~4cm 깊이(중간 깊이)에서 뼈에 닿아 더 이상 진입하지 못했습니다. 이는 바늘이 정중선을 벗어나 척추궁판(Lamina)에 닿은 것으로 판단됩니다. 이때 영상에서 권장하는 가장 적절한 대처 방법은 무엇입니까?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위쪽이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래쪽으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>척추</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Interspace)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재삽입한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒤로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후퇴시킨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뇌척수액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(CSF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흘러나오는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잠시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기다려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피하조직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후퇴시킨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후 꼬리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Caudally)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조정하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재진입한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피하조직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후퇴시킨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Cranially) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>측면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미세하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Micro-redirection)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>짧아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>닿지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것이므로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>즉시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바늘로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교체하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시술을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7013,7 +7013,7 @@
   <dimension ref="A1:K991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7154,28 +7154,28 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>38</v>
+      <c r="F5" s="20" t="s">
+        <v>39</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>5</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihwa\OneDrive\바탕 화면\neurology_quiz_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4114CD32-C0DE-497C-ACDD-D9F9E4DA7537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501403E-DA8F-4E90-A26B-4DD93EE6EDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6350,7 +6350,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">. </t>
+      <t xml:space="preserve">., </t>
     </r>
     <r>
       <rPr>
